--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560347/JX560347_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560347/JX560347_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89302268896</v>
+        <v>45441.83328481685</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1322_1323del']</t>
+          <t>['1232_1302del', '1171_1197del', '1180_1307del', '1345_1385del', '1336_1464del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89302271793</v>
+        <v>45441.83328484001</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['156a&gt;c']</t>
+          <t>['232_318del', '187_272insagtttgacgggctagtgtgtagccgtggtcacccacaatccttggcggtagtgcccaactggaggccagtatgtgtgtcgtcaga', '209_342insctcctccgcttccgcagacgtaacggtattcggatacgtggctacgcactatccgacattgtagaagtaatggtgaacctaatcttgtatgaagagttctagctttgataactttttggctgccaacctaaac', '234_286insgggatggaattaactgggtcgatctaggggggggacacttaaacatataatt', '249_341insaccggtcacactcaaaccgccgggctcctagcttgtcgagcagcaccgcagagtaatagtgttgcgccagagcaccgtcacgtagcaagaca']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89302273543</v>
+        <v>45441.83328486315</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3607_3612insagcac']</t>
+          <t>['3624_3679del', '3636_3714instcggactacgcccgcatacggtaacaggtcgctagtcctagtacccacgttaatgtggacggtaaagatgctcttttt', '3699_3728insataaaatggtctagctagtcaaccgattt', '3616_3704del', '3626_3727del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89302286443</v>
+        <v>45441.83328489207</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1289c&gt;g']</t>
+          <t>['1139_1289insccagagtacgtacgttgcgggccaggttttacatacctcggccatctctgacctgaacggaataatagtgatggttacccacgtgatagtgtaattggagagtaacaggtagtgccaactgagcgatagaagtcctttaggtgaatctat', '1259_1289del', '1204_1292del', '1270_1341del', '1212_1306del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['160_161inst']</t>
+          <t>['168_310del', '201_308insgaatctccgttaagctgagtcgatgccaatccaagacggtgttcgtctcttaacccgcacaatgaaaggtcgttgctgtcccgatacgaaggagtatgtatgagtcc', '157_277insagtaacatgccgaatgcttactttaggtcctgtctttaagtcaagggctagttttaagcaaactcgcagtcgtcaagtgctactcctacttgtgctggtgtaatgctagttgcgcgttag', '184_202instaccagacaagtgtctgt', '176_312del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89302288759</v>
+        <v>45441.83328491522</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1216_1216del']</t>
+          <t>['1160_1215del', '1259_1314instatgttgtaaagctatattcgaatattcaacattgaactagccgcgcgtccaaac', '1116_1211del', '1333_1479del', '1172_1290insaactctagggttcacatatttgtagagtccgaagcgaagcctcacggccctccaaggatatggacatgagagctgggcctatgtgcaacactccactattgatactataaccaaaata']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3631t&gt;a']</t>
+          <t>['3618_3643del', '3613_3739del', '3614_3650del', '3646_3741inscccggacgctggtcaacataaagaatacatgccatctcgcatataaccgatcggggggacagtgggtttcatcaaagcaggactaaagaccacta', '3660_3724insttgccagtagtgagagggttacgcagcgcgacgccctataggcctagctcggcaccaagcctgc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89302291073</v>
+        <v>45441.83328493837</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['183_187del']</t>
+          <t>['192_258del', '246_370insctttaagtacccgctggccgggcacttgttttccgaaccggcaatgcggaggataggctaaccacggtactaacaaccaacaatccacttgtgcgctcgaaatagaacaagatcgagcaagtac', '159_241del', '208_239del', '253_271inscatgcgatcagagaaaag']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3606c&gt;t']</t>
+          <t>['3642_3679insgcatgaggtcagtagtttatgagttagcttcctagaa', '3677_3779instgataaaacaccggtcgtagacgaatttctattgttcagtagtcagtttatcgatgacaggctggcaaggtaatcaacaaaccagccttgaataaatgcgtt', '3656_3673instaagacgtgatatcgat', '3665_3709del', '3640_3714insgaacaggcaccttggaagacattaagtattgacaatatctcttgagtgtgcgtagggaattcgatgccttctgg']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89302292809</v>
+        <v>45441.83328496153</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1280t&gt;c']</t>
+          <t>['1274_1423del', '1177_1311inscttcatctacgtccggtttgacaacctacacaccaaagcttgagcacaatgaccatctctccacaataggccggagaatgactgggttgtcctagcgttgtaatccccaagagactccataaccgtattacaaa', '1144_1156instcaatcactccg', '1120_1200del', '1317_1387del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['165g&gt;c']</t>
+          <t>['242_377del', '152_185insaaagtacttccgtaacgctagctaacttaacga', '253_341del', '190_305insagttaggttacctacagaaacttgaaaaattggcgccactactagaacggtcctgagatttgggaggagccagcatgtgtggactacctcattgtcgttaggatgggcgggaatt', '237_372insttcgcagtctaacctaactttctgtcccaatacatcatcgctgagtggtgcatcatcgccgcagggagctagccatatccacgagtaaatgcgacactgggcgtcttacgttttattgccaactatctaatttcc']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3684t&gt;g']</t>
+          <t>['3644_3750del', '3664_3719del', '3624_3690inscataccacgtggtaggcctgcgcgtaaaacttgttatggagtctttcagttgacccagttaaacag', '3662_3746del', '3679_3753insgccagcggggtcaattatcaatgactagtagatagacccttagcggataagcactgttgttcacgggacatagt']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89302295123</v>
+        <v>45441.83328497888</v>
       </c>
     </row>
   </sheetData>
